--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/RepayActChangeLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/RepayActChangeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7265B7F-3D4A-4E4E-82EE-77CFDFB8F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9A923-6531-4F9D-91E3-7B6A89184C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,26 +85,26 @@
   </si>
   <si>
     <t>RepayBank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>扣款銀行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>扣款帳號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
@@ -124,11 +124,11 @@
   </si>
   <si>
     <t>RepayAcct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -136,43 +136,43 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>KeyID</t>
@@ -190,19 +190,19 @@
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>狀態碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PostDepCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
@@ -329,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,33 +389,11 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
@@ -433,22 +411,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -535,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,70 +558,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,6 +590,30 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,11 +956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
@@ -1030,11 +971,11 @@
     <col min="8" max="16384" width="122.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
@@ -1045,9 +986,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
@@ -1058,11 +999,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
@@ -1073,22 +1014,22 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="12" t="s">
         <v>51</v>
       </c>
@@ -1097,29 +1038,29 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1142,68 +1083,68 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="34">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="34">
         <v>3</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="148.19999999999999" customHeight="1">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1212,195 +1153,195 @@
       <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="48.6">
-      <c r="A14" s="19">
+    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="16">
         <v>14</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="97.2">
-      <c r="A16" s="19">
+    <row r="16" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
         <v>8</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="30">
         <v>1</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="40" customFormat="1">
-      <c r="A17" s="19">
+    <row r="17" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>9</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" s="40" customFormat="1">
-      <c r="A18" s="19">
+      <c r="F17" s="4"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>10</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="E19" s="34"/>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>12</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="34">
         <v>6</v>
       </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>13</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
+      <c r="E21" s="34"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
         <v>14</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="34">
         <v>6</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1427,7 +1368,7 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.77734375" style="1" customWidth="1"/>
@@ -1435,7 +1376,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1457,18 +1398,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/RepayActChangeLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/RepayActChangeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9A923-6531-4F9D-91E3-7B6A89184C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92327524-D493-4280-9D86-3D32000E09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -323,6 +319,9 @@
 8:授權失敗
 9:已送出授權</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -500,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,10 +515,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -531,9 +530,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,9 +542,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,6 +572,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -590,30 +607,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,9 +627,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -674,9 +667,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -709,26 +702,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -761,26 +737,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,111 +915,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="122.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="17" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="101.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="15" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="101.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="122.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1079,269 +1038,269 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="D9" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <v>3</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="14">
+        <v>2</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="14">
+        <v>14</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>8</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>9</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="16">
-        <v>2</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
-        <v>5</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="E17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>10</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>11</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>12</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="28">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="34">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>7</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>13</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>14</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>8</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
-        <v>9</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>10</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
-        <v>11</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
-        <v>12</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="B22" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="28">
         <v>6</v>
       </c>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
-        <v>13</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
-        <v>14</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="34">
-        <v>6</v>
-      </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1389,35 +1348,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
